--- a/biology/Botanique/Dracaenaceae/Dracaenaceae.xlsx
+++ b/biology/Botanique/Dracaenaceae/Dracaenaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Dracaenacées (Dracaenaceae Salisb.) est constituée de plantes monocotylédones dont la classification incertaine a souvent varié selon les époques et les auteurs.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Dracaena, issu du grec δρακαινα  / drakaina, dragon. En effet la plante est appelée « arbre dragon » car, selon Alexandre de Théis, « son suc se réduit en une poudre rouge, aromatique semblable au vrai sang-dragon oriental qui est une substance différente »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Dracaena, issu du grec δρακαινα  / drakaina, dragon. En effet la plante est appelée « arbre dragon » car, selon Alexandre de Théis, « son suc se réduit en une poudre rouge, aromatique semblable au vrai sang-dragon oriental qui est une substance différente ».
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille est invalide dans les classifications phylogénétiques du XXIe siècle. Classiquement, elle peut comprendre 2 genres : Dracaena et Sansevieria, parmi lesquels on retrouve notamment des espèces cultivées pour leur résistance en plantes d'intérieur.
 </t>
@@ -573,7 +589,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dracaena
 Sansevieria
@@ -609,13 +627,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Classiquement, les Dracaenaceae pouvaient former selon les différentes classifications, une sous-famille des Liliaceae, des Asparagaceae, ou des Agavaceae, voire ne pas constituer un clade distinct.
 Les Sansevieria pouvaient aussi parfois former une famille distincte : celle des Sanseveriaceae.
-La classification phylogénétique APG II (2003)[2] intègre les genres de Dracaenaceae dans la famille des Ruscaceae.
-La classification phylogénétique APG III (2009)[3] intègre les genres de Dracaenaceae dans la famille des Asparagaceae, sous-famille des Nolinoideae.
-La classification phylogénétique APG IV (2016)[4] intègre ces genres dans la famille des Asparagaceae, sous-famille  des Nolinoideae, tribu des Dracaeneae[5].
+La classification phylogénétique APG II (2003) intègre les genres de Dracaenaceae dans la famille des Ruscaceae.
+La classification phylogénétique APG III (2009) intègre les genres de Dracaenaceae dans la famille des Asparagaceae, sous-famille des Nolinoideae.
+La classification phylogénétique APG IV (2016) intègre ces genres dans la famille des Asparagaceae, sous-famille  des Nolinoideae, tribu des Dracaeneae.
 </t>
         </is>
       </c>
